--- a/data/장애인일자리_공공기관.xlsx
+++ b/data/장애인일자리_공공기관.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\위드유_현정\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413EA205-FF30-4EC9-9D3A-D1270B08BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="2595" windowWidth="15810" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8676" yWindow="2592" windowWidth="15816" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2307,7 +2306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2715,19 +2714,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1004"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="B358" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="77.28515625" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="28" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8920,14 +8919,7 @@
         <v>129.12283880000001</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="16.5" customHeight="1">
-      <c r="D362" s="3">
-        <v>35.225172800000003</v>
-      </c>
-      <c r="E362" s="3">
-        <v>129.1479143</v>
-      </c>
-    </row>
+    <row r="362" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="363" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="364" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="365" spans="1:5" ht="16.5" customHeight="1"/>
@@ -9569,7 +9561,6 @@
     <row r="1001" ht="16.5" customHeight="1"/>
     <row r="1002" ht="16.5" customHeight="1"/>
     <row r="1003" ht="16.5" customHeight="1"/>
-    <row r="1004" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0" footer="0"/>
